--- a/dataanalysis/data/predictions/1200/09151132_1133.xlsx
+++ b/dataanalysis/data/predictions/1200/09151132_1133.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-15</t>
   </si>
   <si>
@@ -443,12 +446,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -806,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH69"/>
+  <dimension ref="A1:AI69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,19 +912,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.83</v>
@@ -945,7 +945,7 @@
         <v>53283.27</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -986,8 +986,23 @@
       <c r="W2">
         <v>0.2</v>
       </c>
+      <c r="X2">
+        <v>0.6</v>
+      </c>
+      <c r="Y2">
+        <v>15.8</v>
+      </c>
+      <c r="Z2">
+        <v>23.24</v>
+      </c>
       <c r="AC2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -995,22 +1010,25 @@
       <c r="AG2">
         <v>1.912058234214783</v>
       </c>
-      <c r="AH2" t="s">
-        <v>143</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.93</v>
@@ -1028,7 +1046,7 @@
         <v>164605.16</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1069,8 +1087,23 @@
       <c r="W3">
         <v>0.25</v>
       </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>64.92</v>
+      </c>
+      <c r="Z3">
+        <v>17.4</v>
+      </c>
       <c r="AC3" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1078,22 +1111,25 @@
       <c r="AG3">
         <v>1.913973212242126</v>
       </c>
-      <c r="AH3" t="s">
-        <v>143</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.08</v>
@@ -1111,7 +1147,7 @@
         <v>749532.77</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1152,8 +1188,23 @@
       <c r="W4">
         <v>0.03</v>
       </c>
+      <c r="X4">
+        <v>-0.19</v>
+      </c>
+      <c r="Y4">
+        <v>74.92</v>
+      </c>
+      <c r="Z4">
+        <v>-2.47</v>
+      </c>
       <c r="AC4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1161,22 +1212,25 @@
       <c r="AG4">
         <v>1.30543577671051</v>
       </c>
-      <c r="AH4" t="s">
-        <v>143</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1194,7 +1248,7 @@
         <v>125500.89</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1235,8 +1289,23 @@
       <c r="W5">
         <v>3.86</v>
       </c>
+      <c r="X5">
+        <v>15.92</v>
+      </c>
+      <c r="Y5">
+        <v>7.99</v>
+      </c>
+      <c r="Z5">
+        <v>19.97</v>
+      </c>
       <c r="AC5" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1244,22 +1313,25 @@
       <c r="AG5">
         <v>10.86021041870117</v>
       </c>
-      <c r="AH5" t="s">
-        <v>144</v>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.3</v>
@@ -1277,7 +1349,7 @@
         <v>66139.75999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1318,8 +1390,23 @@
       <c r="W6">
         <v>0.61</v>
       </c>
+      <c r="X6">
+        <v>4.38</v>
+      </c>
+      <c r="Y6">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>22.84</v>
+      </c>
       <c r="AC6" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1327,22 +1414,25 @@
       <c r="AG6">
         <v>22.48228454589844</v>
       </c>
-      <c r="AH6" t="s">
-        <v>143</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.03</v>
@@ -1360,7 +1450,7 @@
         <v>120112.79</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1401,8 +1491,23 @@
       <c r="W7">
         <v>-0.76</v>
       </c>
+      <c r="X7">
+        <v>5.61</v>
+      </c>
+      <c r="Y7">
+        <v>28.06</v>
+      </c>
+      <c r="Z7">
+        <v>5.17</v>
+      </c>
       <c r="AC7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1410,22 +1515,25 @@
       <c r="AG7">
         <v>1.42311155796051</v>
       </c>
-      <c r="AH7" t="s">
-        <v>143</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300207</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.54</v>
@@ -1443,7 +1551,7 @@
         <v>368233.63</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1484,8 +1592,23 @@
       <c r="W8">
         <v>0.15</v>
       </c>
+      <c r="X8">
+        <v>0.28</v>
+      </c>
+      <c r="Y8">
+        <v>29.35</v>
+      </c>
+      <c r="Z8">
+        <v>-0.74</v>
+      </c>
       <c r="AC8" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1493,22 +1616,25 @@
       <c r="AG8">
         <v>7.083527088165283</v>
       </c>
-      <c r="AH8" t="s">
-        <v>143</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>9.390000000000001</v>
@@ -1526,7 +1652,7 @@
         <v>85353.44</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1567,8 +1693,23 @@
       <c r="W9">
         <v>-0.18</v>
       </c>
+      <c r="X9">
+        <v>-6.03</v>
+      </c>
+      <c r="Y9">
+        <v>3.99</v>
+      </c>
+      <c r="Z9">
+        <v>0.76</v>
+      </c>
       <c r="AC9" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1576,22 +1717,25 @@
       <c r="AG9">
         <v>-4.504271984100342</v>
       </c>
-      <c r="AH9" t="s">
-        <v>143</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300274</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>5.88</v>
@@ -1609,7 +1753,7 @@
         <v>1494927.16</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1650,8 +1794,23 @@
       <c r="W10">
         <v>0.04</v>
       </c>
+      <c r="X10">
+        <v>2.66</v>
+      </c>
+      <c r="Y10">
+        <v>143.08</v>
+      </c>
+      <c r="Z10">
+        <v>0.91</v>
+      </c>
       <c r="AC10" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1659,22 +1818,25 @@
       <c r="AG10">
         <v>4.661559104919434</v>
       </c>
-      <c r="AH10" t="s">
-        <v>143</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300290</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>7.6</v>
@@ -1692,7 +1854,7 @@
         <v>101722.06</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1733,8 +1895,23 @@
       <c r="W11">
         <v>0.14</v>
       </c>
+      <c r="X11">
+        <v>1.66</v>
+      </c>
+      <c r="Y11">
+        <v>32.29</v>
+      </c>
+      <c r="Z11">
+        <v>11.81</v>
+      </c>
       <c r="AC11" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1742,22 +1919,25 @@
       <c r="AG11">
         <v>-6.793203353881836</v>
       </c>
-      <c r="AH11" t="s">
-        <v>143</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300308</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.64</v>
@@ -1775,7 +1955,7 @@
         <v>1047310.44</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12">
         <v>45</v>
@@ -1816,8 +1996,23 @@
       <c r="W12">
         <v>-0.2</v>
       </c>
+      <c r="X12">
+        <v>0.83</v>
+      </c>
+      <c r="Y12">
+        <v>421.97</v>
+      </c>
+      <c r="Z12">
+        <v>2.69</v>
+      </c>
       <c r="AC12" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1825,22 +2020,25 @@
       <c r="AG12">
         <v>0.4998268485069275</v>
       </c>
-      <c r="AH12" t="s">
-        <v>143</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.28</v>
@@ -1858,7 +2056,7 @@
         <v>133638.08</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1899,8 +2097,23 @@
       <c r="W13">
         <v>-1.13</v>
       </c>
+      <c r="X13">
+        <v>1.38</v>
+      </c>
+      <c r="Y13">
+        <v>7.57</v>
+      </c>
+      <c r="Z13">
+        <v>6.32</v>
+      </c>
       <c r="AC13" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1908,22 +2121,25 @@
       <c r="AG13">
         <v>-6.080170631408691</v>
       </c>
-      <c r="AH13" t="s">
-        <v>143</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300363</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>11.69</v>
@@ -1941,7 +2157,7 @@
         <v>120991.3</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1982,8 +2198,23 @@
       <c r="W14">
         <v>0.46</v>
       </c>
+      <c r="X14">
+        <v>-1.78</v>
+      </c>
+      <c r="Y14">
+        <v>28.83</v>
+      </c>
+      <c r="Z14">
+        <v>-1.4</v>
+      </c>
       <c r="AC14" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1991,22 +2222,25 @@
       <c r="AG14">
         <v>-1.041929364204407</v>
       </c>
-      <c r="AH14" t="s">
-        <v>143</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300409</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.3</v>
@@ -2024,7 +2258,7 @@
         <v>156538.57</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>21</v>
@@ -2065,8 +2299,23 @@
       <c r="W15">
         <v>-0.48</v>
       </c>
+      <c r="X15">
+        <v>1.37</v>
+      </c>
+      <c r="Y15">
+        <v>26.03</v>
+      </c>
+      <c r="Z15">
+        <v>0.66</v>
+      </c>
       <c r="AC15" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2074,22 +2323,25 @@
       <c r="AG15">
         <v>2.920441865921021</v>
       </c>
-      <c r="AH15" t="s">
-        <v>143</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300428</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.9</v>
@@ -2107,7 +2359,7 @@
         <v>79164.75</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2148,8 +2400,23 @@
       <c r="W16">
         <v>0.18</v>
       </c>
+      <c r="X16">
+        <v>6.01</v>
+      </c>
+      <c r="Y16">
+        <v>26.5</v>
+      </c>
+      <c r="Z16">
+        <v>3.56</v>
+      </c>
       <c r="AC16" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2157,22 +2424,25 @@
       <c r="AG16">
         <v>22.55544662475586</v>
       </c>
-      <c r="AH16" t="s">
-        <v>143</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300438</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.86</v>
@@ -2190,7 +2460,7 @@
         <v>132928.65</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2231,8 +2501,23 @@
       <c r="W17">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X17">
+        <v>-0.45</v>
+      </c>
+      <c r="Y17">
+        <v>33.4</v>
+      </c>
+      <c r="Z17">
+        <v>-1.3</v>
+      </c>
       <c r="AC17" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2240,22 +2525,25 @@
       <c r="AG17">
         <v>7.090868949890137</v>
       </c>
-      <c r="AH17" t="s">
-        <v>143</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300450</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2273,7 +2561,7 @@
         <v>697001.83</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -2314,8 +2602,23 @@
       <c r="W18">
         <v>-0.28</v>
       </c>
+      <c r="X18">
+        <v>-1.06</v>
+      </c>
+      <c r="Y18">
+        <v>55.96</v>
+      </c>
+      <c r="Z18">
+        <v>1.1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2323,22 +2626,25 @@
       <c r="AG18">
         <v>-19.19423675537109</v>
       </c>
-      <c r="AH18" t="s">
-        <v>143</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300457</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>5.45</v>
@@ -2356,7 +2662,7 @@
         <v>292571.96</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2397,8 +2703,23 @@
       <c r="W19">
         <v>-0.5</v>
       </c>
+      <c r="X19">
+        <v>-4.54</v>
+      </c>
+      <c r="Y19">
+        <v>34.48</v>
+      </c>
+      <c r="Z19">
+        <v>-2.1</v>
+      </c>
       <c r="AC19" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2406,22 +2727,25 @@
       <c r="AG19">
         <v>-6.959610939025879</v>
       </c>
-      <c r="AH19" t="s">
-        <v>143</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300469</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>15.98</v>
@@ -2439,7 +2763,7 @@
         <v>130270.69</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>18</v>
@@ -2480,8 +2804,23 @@
       <c r="W20">
         <v>0.09</v>
       </c>
+      <c r="X20">
+        <v>2.19</v>
+      </c>
+      <c r="Y20">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="Z20">
+        <v>0.74</v>
+      </c>
       <c r="AC20" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2489,22 +2828,25 @@
       <c r="AG20">
         <v>2.2795090675354</v>
       </c>
-      <c r="AH20" t="s">
-        <v>143</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300475</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.96</v>
@@ -2522,7 +2864,7 @@
         <v>341080.19</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2563,8 +2905,23 @@
       <c r="W21">
         <v>0.17</v>
       </c>
+      <c r="X21">
+        <v>-0.45</v>
+      </c>
+      <c r="Y21">
+        <v>77</v>
+      </c>
+      <c r="Z21">
+        <v>2.28</v>
+      </c>
       <c r="AC21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2572,22 +2929,25 @@
       <c r="AG21">
         <v>15.47797870635986</v>
       </c>
-      <c r="AH21" t="s">
-        <v>144</v>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300476</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.07</v>
@@ -2605,7 +2965,7 @@
         <v>1240216.06</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>69</v>
@@ -2646,8 +3006,23 @@
       <c r="W22">
         <v>-0.33</v>
       </c>
+      <c r="X22">
+        <v>5.29</v>
+      </c>
+      <c r="Y22">
+        <v>355</v>
+      </c>
+      <c r="Z22">
+        <v>7.86</v>
+      </c>
       <c r="AC22" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2655,22 +3030,25 @@
       <c r="AG22">
         <v>12.86353206634521</v>
       </c>
-      <c r="AH22" t="s">
-        <v>143</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>9.859999999999999</v>
@@ -2688,7 +3066,7 @@
         <v>159766.75</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2729,8 +3107,23 @@
       <c r="W23">
         <v>0.26</v>
       </c>
+      <c r="X23">
+        <v>-5.28</v>
+      </c>
+      <c r="Y23">
+        <v>33.6</v>
+      </c>
+      <c r="Z23">
+        <v>5.1</v>
+      </c>
       <c r="AC23" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2738,22 +3131,25 @@
       <c r="AG23">
         <v>-1.436392784118652</v>
       </c>
-      <c r="AH23" t="s">
-        <v>143</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.29</v>
@@ -2771,7 +3167,7 @@
         <v>33534.86</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2812,8 +3208,23 @@
       <c r="W24">
         <v>0.21</v>
       </c>
+      <c r="X24">
+        <v>1.59</v>
+      </c>
+      <c r="Y24">
+        <v>39.2</v>
+      </c>
+      <c r="Z24">
+        <v>4.64</v>
+      </c>
       <c r="AC24" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2821,22 +3232,25 @@
       <c r="AG24">
         <v>-0.4900457859039307</v>
       </c>
-      <c r="AH24" t="s">
-        <v>143</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300568</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.34</v>
@@ -2854,7 +3268,7 @@
         <v>157709.44</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2895,8 +3309,23 @@
       <c r="W25">
         <v>0.46</v>
       </c>
+      <c r="X25">
+        <v>-1.52</v>
+      </c>
+      <c r="Y25">
+        <v>14.48</v>
+      </c>
+      <c r="Z25">
+        <v>-3.47</v>
+      </c>
       <c r="AC25" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2904,22 +3333,25 @@
       <c r="AG25">
         <v>4.004294872283936</v>
       </c>
-      <c r="AH25" t="s">
-        <v>143</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300618</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.2</v>
@@ -2937,7 +3369,7 @@
         <v>114520.09</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -2978,8 +3410,23 @@
       <c r="W26">
         <v>-0.44</v>
       </c>
+      <c r="X26">
+        <v>-0.28</v>
+      </c>
+      <c r="Y26">
+        <v>51.15</v>
+      </c>
+      <c r="Z26">
+        <v>-1.39</v>
+      </c>
       <c r="AC26" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2987,22 +3434,25 @@
       <c r="AG26">
         <v>-6.820871353149414</v>
       </c>
-      <c r="AH26" t="s">
-        <v>143</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300619</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.82</v>
@@ -3020,7 +3470,7 @@
         <v>67419.14</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3061,8 +3511,23 @@
       <c r="W27">
         <v>-1.05</v>
       </c>
+      <c r="X27">
+        <v>-2.49</v>
+      </c>
+      <c r="Y27">
+        <v>35.84</v>
+      </c>
+      <c r="Z27">
+        <v>-5.19</v>
+      </c>
       <c r="AC27" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3070,22 +3535,25 @@
       <c r="AG27">
         <v>-1.947713375091553</v>
       </c>
-      <c r="AH27" t="s">
-        <v>143</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300620</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.92</v>
@@ -3103,7 +3571,7 @@
         <v>167846.04</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3144,8 +3612,23 @@
       <c r="W28">
         <v>0.25</v>
       </c>
+      <c r="X28">
+        <v>-1.53</v>
+      </c>
+      <c r="Y28">
+        <v>105.49</v>
+      </c>
+      <c r="Z28">
+        <v>3.37</v>
+      </c>
       <c r="AC28" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3153,22 +3636,25 @@
       <c r="AG28">
         <v>5.240616321563721</v>
       </c>
-      <c r="AH28" t="s">
-        <v>143</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300661</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>19.97</v>
@@ -3186,7 +3672,7 @@
         <v>843865.45</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3227,8 +3713,23 @@
       <c r="W29">
         <v>1.24</v>
       </c>
+      <c r="X29">
+        <v>-4.74</v>
+      </c>
+      <c r="Y29">
+        <v>84.8</v>
+      </c>
+      <c r="Z29">
+        <v>-2.97</v>
+      </c>
       <c r="AC29" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3236,22 +3737,25 @@
       <c r="AG29">
         <v>-8.908798217773438</v>
       </c>
-      <c r="AH29" t="s">
-        <v>143</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300680</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>11.74</v>
@@ -3269,7 +3773,7 @@
         <v>122508.38</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3310,8 +3814,23 @@
       <c r="W30">
         <v>0.38</v>
       </c>
+      <c r="X30">
+        <v>3.2</v>
+      </c>
+      <c r="Y30">
+        <v>62.88</v>
+      </c>
+      <c r="Z30">
+        <v>1.52</v>
+      </c>
       <c r="AC30" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3319,22 +3838,25 @@
       <c r="AG30">
         <v>2.731123208999634</v>
       </c>
-      <c r="AH30" t="s">
-        <v>143</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300701</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.64</v>
@@ -3352,7 +3874,7 @@
         <v>32377.96</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3393,8 +3915,23 @@
       <c r="W31">
         <v>0.62</v>
       </c>
+      <c r="X31">
+        <v>-2.32</v>
+      </c>
+      <c r="Y31">
+        <v>14.98</v>
+      </c>
+      <c r="Z31">
+        <v>5.34</v>
+      </c>
       <c r="AC31" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3402,22 +3939,25 @@
       <c r="AG31">
         <v>8.610536575317383</v>
       </c>
-      <c r="AH31" t="s">
-        <v>143</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300750</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>9.85</v>
@@ -3435,7 +3975,7 @@
         <v>2066771.97</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3476,8 +4016,23 @@
       <c r="W32">
         <v>0.05</v>
       </c>
+      <c r="X32">
+        <v>-0.36</v>
+      </c>
+      <c r="Y32">
+        <v>359</v>
+      </c>
+      <c r="Z32">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC32" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3485,22 +4040,25 @@
       <c r="AG32">
         <v>-28.92251014709473</v>
       </c>
-      <c r="AH32" t="s">
-        <v>143</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300757</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.18</v>
@@ -3518,7 +4076,7 @@
         <v>179902.5</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K33">
         <v>16</v>
@@ -3559,8 +4117,23 @@
       <c r="W33">
         <v>-0.14</v>
       </c>
+      <c r="X33">
+        <v>5.58</v>
+      </c>
+      <c r="Y33">
+        <v>299.95</v>
+      </c>
+      <c r="Z33">
+        <v>5.25</v>
+      </c>
       <c r="AC33" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3568,22 +4141,25 @@
       <c r="AG33">
         <v>1.807194352149963</v>
       </c>
-      <c r="AH33" t="s">
-        <v>143</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300763</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>3.78</v>
@@ -3601,7 +4177,7 @@
         <v>281028.79</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3642,8 +4218,23 @@
       <c r="W34">
         <v>0.31</v>
       </c>
+      <c r="X34">
+        <v>-1.09</v>
+      </c>
+      <c r="Y34">
+        <v>85.5</v>
+      </c>
+      <c r="Z34">
+        <v>-0.72</v>
+      </c>
       <c r="AC34" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3651,22 +4242,25 @@
       <c r="AG34">
         <v>7.122427463531494</v>
       </c>
-      <c r="AH34" t="s">
-        <v>143</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300769</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.13</v>
@@ -3684,7 +4278,7 @@
         <v>86285.32000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3725,8 +4319,23 @@
       <c r="W35">
         <v>0.54</v>
       </c>
+      <c r="X35">
+        <v>-1.73</v>
+      </c>
+      <c r="Y35">
+        <v>41.52</v>
+      </c>
+      <c r="Z35">
+        <v>-3.04</v>
+      </c>
       <c r="AC35" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3734,22 +4343,25 @@
       <c r="AG35">
         <v>5.947088718414307</v>
       </c>
-      <c r="AH35" t="s">
-        <v>143</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300790</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.45</v>
@@ -3767,7 +4379,7 @@
         <v>53969.36</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>10</v>
@@ -3808,8 +4420,23 @@
       <c r="W36">
         <v>-0.29</v>
       </c>
+      <c r="X36">
+        <v>-0.88</v>
+      </c>
+      <c r="Y36">
+        <v>34.13</v>
+      </c>
+      <c r="Z36">
+        <v>-1.33</v>
+      </c>
       <c r="AC36" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3817,22 +4444,25 @@
       <c r="AG36">
         <v>-1.092445611953735</v>
       </c>
-      <c r="AH36" t="s">
-        <v>143</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300803</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.03</v>
@@ -3850,7 +4480,7 @@
         <v>440102.91</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K37">
         <v>25</v>
@@ -3891,8 +4521,23 @@
       <c r="W37">
         <v>0.26</v>
       </c>
+      <c r="X37">
+        <v>6.22</v>
+      </c>
+      <c r="Y37">
+        <v>158.8</v>
+      </c>
+      <c r="Z37">
+        <v>5.66</v>
+      </c>
       <c r="AC37" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3900,22 +4545,25 @@
       <c r="AG37">
         <v>-2.210168361663818</v>
       </c>
-      <c r="AH37" t="s">
-        <v>143</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300827</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.04</v>
@@ -3933,7 +4581,7 @@
         <v>231484.95</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -3974,8 +4622,23 @@
       <c r="W38">
         <v>-0.28</v>
       </c>
+      <c r="X38">
+        <v>-0.12</v>
+      </c>
+      <c r="Y38">
+        <v>34</v>
+      </c>
+      <c r="Z38">
+        <v>-3.52</v>
+      </c>
       <c r="AC38" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3983,22 +4646,25 @@
       <c r="AG38">
         <v>10.20690822601318</v>
       </c>
-      <c r="AH38" t="s">
-        <v>143</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300852</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-2.94</v>
@@ -4016,7 +4682,7 @@
         <v>49486.77</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4057,8 +4723,23 @@
       <c r="W39">
         <v>-0.36</v>
       </c>
+      <c r="X39">
+        <v>-1.32</v>
+      </c>
+      <c r="Y39">
+        <v>46.57</v>
+      </c>
+      <c r="Z39">
+        <v>1.55</v>
+      </c>
       <c r="AC39" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4066,22 +4747,25 @@
       <c r="AG39">
         <v>-2.277665615081787</v>
       </c>
-      <c r="AH39" t="s">
-        <v>143</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300857</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.06</v>
@@ -4099,7 +4783,7 @@
         <v>215850.91</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K40">
         <v>17</v>
@@ -4140,8 +4824,23 @@
       <c r="W40">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X40">
+        <v>13.1</v>
+      </c>
+      <c r="Y40">
+        <v>161.1</v>
+      </c>
+      <c r="Z40">
+        <v>16.42</v>
+      </c>
       <c r="AC40" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4149,22 +4848,25 @@
       <c r="AG40">
         <v>-0.4538934230804443</v>
       </c>
-      <c r="AH40" t="s">
-        <v>143</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300859</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.12</v>
@@ -4182,7 +4884,7 @@
         <v>59955.24</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4223,8 +4925,23 @@
       <c r="W41">
         <v>-0.34</v>
       </c>
+      <c r="X41">
+        <v>1.1</v>
+      </c>
+      <c r="Y41">
+        <v>53.38</v>
+      </c>
+      <c r="Z41">
+        <v>6.8</v>
+      </c>
       <c r="AC41" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4232,22 +4949,25 @@
       <c r="AG41">
         <v>-0.3209647536277771</v>
       </c>
-      <c r="AH41" t="s">
-        <v>143</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300953</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.54</v>
@@ -4265,7 +4985,7 @@
         <v>117638.21</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <v>14</v>
@@ -4306,8 +5026,23 @@
       <c r="W42">
         <v>0.36</v>
       </c>
+      <c r="X42">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>176.88</v>
+      </c>
+      <c r="Z42">
+        <v>8.720000000000001</v>
+      </c>
       <c r="AC42" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4315,22 +5050,25 @@
       <c r="AG42">
         <v>5.735959053039551</v>
       </c>
-      <c r="AH42" t="s">
-        <v>143</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300990</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>4.06</v>
@@ -4348,7 +5086,7 @@
         <v>48358.52</v>
       </c>
       <c r="J43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4389,8 +5127,23 @@
       <c r="W43">
         <v>-0.02</v>
       </c>
+      <c r="X43">
+        <v>0.24</v>
+      </c>
+      <c r="Y43">
+        <v>87.88</v>
+      </c>
+      <c r="Z43">
+        <v>4.77</v>
+      </c>
       <c r="AC43" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4398,22 +5151,25 @@
       <c r="AG43">
         <v>3.706723690032959</v>
       </c>
-      <c r="AH43" t="s">
-        <v>143</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301076</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>5.26</v>
@@ -4431,7 +5187,7 @@
         <v>112353.96</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>6</v>
@@ -4472,8 +5228,23 @@
       <c r="W44">
         <v>0.97</v>
       </c>
+      <c r="X44">
+        <v>-1.25</v>
+      </c>
+      <c r="Y44">
+        <v>64.67</v>
+      </c>
+      <c r="Z44">
+        <v>3.87</v>
+      </c>
       <c r="AC44" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4481,22 +5252,25 @@
       <c r="AG44">
         <v>4.316732883453369</v>
       </c>
-      <c r="AH44" t="s">
-        <v>144</v>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301123</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.9</v>
@@ -4514,7 +5288,7 @@
         <v>35656.76</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4555,8 +5329,23 @@
       <c r="W45">
         <v>-0.31</v>
       </c>
+      <c r="X45">
+        <v>2.04</v>
+      </c>
+      <c r="Y45">
+        <v>49.77</v>
+      </c>
+      <c r="Z45">
+        <v>6.05</v>
+      </c>
       <c r="AC45" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4564,22 +5353,25 @@
       <c r="AG45">
         <v>28.06465148925781</v>
       </c>
-      <c r="AH45" t="s">
-        <v>143</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301150</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4597,7 +5389,7 @@
         <v>127721.95</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -4638,8 +5430,23 @@
       <c r="W46">
         <v>3.14</v>
       </c>
+      <c r="X46">
+        <v>-5.85</v>
+      </c>
+      <c r="Y46">
+        <v>44.97</v>
+      </c>
+      <c r="Z46">
+        <v>2.39</v>
+      </c>
       <c r="AC46" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4647,22 +5454,25 @@
       <c r="AG46">
         <v>13.22678375244141</v>
       </c>
-      <c r="AH46" t="s">
-        <v>144</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301307</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>3.08</v>
@@ -4680,7 +5490,7 @@
         <v>46459.54</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4721,8 +5531,23 @@
       <c r="W47">
         <v>1.08</v>
       </c>
+      <c r="X47">
+        <v>20</v>
+      </c>
+      <c r="Y47">
+        <v>40.38</v>
+      </c>
+      <c r="Z47">
+        <v>19.64</v>
+      </c>
       <c r="AC47" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4730,22 +5555,25 @@
       <c r="AG47">
         <v>6.616820335388184</v>
       </c>
-      <c r="AH47" t="s">
-        <v>143</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301377</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.67</v>
@@ -4763,7 +5591,7 @@
         <v>56606.3</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4804,8 +5632,23 @@
       <c r="W48">
         <v>-0.7</v>
       </c>
+      <c r="X48">
+        <v>-1.09</v>
+      </c>
+      <c r="Y48">
+        <v>91</v>
+      </c>
+      <c r="Z48">
+        <v>3.34</v>
+      </c>
       <c r="AC48" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4813,22 +5656,25 @@
       <c r="AG48">
         <v>2.097986936569214</v>
       </c>
-      <c r="AH48" t="s">
-        <v>143</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301398</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.18</v>
@@ -4846,7 +5692,7 @@
         <v>30083.15</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4887,8 +5733,23 @@
       <c r="W49">
         <v>1.06</v>
       </c>
+      <c r="X49">
+        <v>3.97</v>
+      </c>
+      <c r="Y49">
+        <v>56.98</v>
+      </c>
+      <c r="Z49">
+        <v>6.76</v>
+      </c>
       <c r="AC49" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4896,22 +5757,25 @@
       <c r="AG49">
         <v>3.347576856613159</v>
       </c>
-      <c r="AH49" t="s">
-        <v>144</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301413</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>6.79</v>
@@ -4929,7 +5793,7 @@
         <v>70955.92</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K50">
         <v>17</v>
@@ -4970,8 +5834,23 @@
       <c r="W50">
         <v>0.33</v>
       </c>
+      <c r="X50">
+        <v>20</v>
+      </c>
+      <c r="Y50">
+        <v>180.11</v>
+      </c>
+      <c r="Z50">
+        <v>18.49</v>
+      </c>
       <c r="AC50" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4979,22 +5858,25 @@
       <c r="AG50">
         <v>2.675612449645996</v>
       </c>
-      <c r="AH50" t="s">
-        <v>143</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301488</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>17.88</v>
@@ -5012,7 +5894,7 @@
         <v>150687.22</v>
       </c>
       <c r="J51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K51">
         <v>14</v>
@@ -5053,8 +5935,23 @@
       <c r="W51">
         <v>1.7</v>
       </c>
+      <c r="X51">
+        <v>7.15</v>
+      </c>
+      <c r="Y51">
+        <v>203.15</v>
+      </c>
+      <c r="Z51">
+        <v>8.31</v>
+      </c>
       <c r="AC51" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5062,22 +5959,25 @@
       <c r="AG51">
         <v>12.13973712921143</v>
       </c>
-      <c r="AH51" t="s">
-        <v>143</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301617</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.98</v>
@@ -5095,7 +5995,7 @@
         <v>30523.41</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K52">
         <v>17</v>
@@ -5136,8 +6036,23 @@
       <c r="W52">
         <v>-0.87</v>
       </c>
+      <c r="X52">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>79.95</v>
+      </c>
+      <c r="Z52">
+        <v>-0.9</v>
+      </c>
       <c r="AC52" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5145,22 +6060,25 @@
       <c r="AG52">
         <v>-6.760971546173096</v>
       </c>
-      <c r="AH52" t="s">
-        <v>143</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688005</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>4.37</v>
@@ -5178,7 +6096,7 @@
         <v>120406.71</v>
       </c>
       <c r="J53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -5219,8 +6137,23 @@
       <c r="W53">
         <v>0.23</v>
       </c>
+      <c r="X53">
+        <v>-0.65</v>
+      </c>
+      <c r="Y53">
+        <v>29.9</v>
+      </c>
+      <c r="Z53">
+        <v>-2.92</v>
+      </c>
       <c r="AC53" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5228,22 +6161,25 @@
       <c r="AG53">
         <v>2.889949560165405</v>
       </c>
-      <c r="AH53" t="s">
-        <v>143</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688028</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>2.73</v>
@@ -5261,7 +6197,7 @@
         <v>48614.98</v>
       </c>
       <c r="J54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5302,8 +6238,23 @@
       <c r="W54">
         <v>-0.38</v>
       </c>
+      <c r="X54">
+        <v>-4.09</v>
+      </c>
+      <c r="Y54">
+        <v>47.95</v>
+      </c>
+      <c r="Z54">
+        <v>7.9</v>
+      </c>
       <c r="AC54" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5311,22 +6262,25 @@
       <c r="AG54">
         <v>1.955839991569519</v>
       </c>
-      <c r="AH54" t="s">
-        <v>143</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688041</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>7.88</v>
@@ -5344,7 +6298,7 @@
         <v>1185660.62</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5385,8 +6339,23 @@
       <c r="W55">
         <v>0.04</v>
       </c>
+      <c r="X55">
+        <v>6.26</v>
+      </c>
+      <c r="Y55">
+        <v>255.96</v>
+      </c>
+      <c r="Z55">
+        <v>7.84</v>
+      </c>
       <c r="AC55" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5394,22 +6363,25 @@
       <c r="AG55">
         <v>-3.516213655471802</v>
       </c>
-      <c r="AH55" t="s">
-        <v>143</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688135</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.72</v>
@@ -5427,7 +6399,7 @@
         <v>39515.18</v>
       </c>
       <c r="J56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -5468,8 +6440,23 @@
       <c r="W56">
         <v>-1.01</v>
       </c>
+      <c r="X56">
+        <v>-1.3</v>
+      </c>
+      <c r="Y56">
+        <v>28.79</v>
+      </c>
+      <c r="Z56">
+        <v>0.73</v>
+      </c>
       <c r="AC56" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5477,22 +6464,25 @@
       <c r="AG56">
         <v>1.222324848175049</v>
       </c>
-      <c r="AH56" t="s">
-        <v>143</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688141</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.46</v>
@@ -5510,7 +6500,7 @@
         <v>98901.88</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5551,8 +6541,23 @@
       <c r="W57">
         <v>0.05</v>
       </c>
+      <c r="X57">
+        <v>-0.44</v>
+      </c>
+      <c r="Y57">
+        <v>54.48</v>
+      </c>
+      <c r="Z57">
+        <v>3.34</v>
+      </c>
       <c r="AC57" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5560,22 +6565,25 @@
       <c r="AG57">
         <v>4.932821750640869</v>
       </c>
-      <c r="AH57" t="s">
-        <v>143</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688147</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>4.42</v>
@@ -5593,7 +6601,7 @@
         <v>45602.06</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <v>21</v>
@@ -5634,8 +6642,23 @@
       <c r="W58">
         <v>1.52</v>
       </c>
+      <c r="X58">
+        <v>-1.25</v>
+      </c>
+      <c r="Y58">
+        <v>48.3</v>
+      </c>
+      <c r="Z58">
+        <v>4.36</v>
+      </c>
       <c r="AC58" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5643,22 +6666,25 @@
       <c r="AG58">
         <v>20.75204467773438</v>
       </c>
-      <c r="AH58" t="s">
-        <v>143</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688167</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1.61</v>
@@ -5676,7 +6702,7 @@
         <v>100696.79</v>
       </c>
       <c r="J59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5717,8 +6743,23 @@
       <c r="W59">
         <v>-0.24</v>
       </c>
+      <c r="X59">
+        <v>2.8</v>
+      </c>
+      <c r="Y59">
+        <v>166.1</v>
+      </c>
+      <c r="Z59">
+        <v>3.46</v>
+      </c>
       <c r="AC59" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5726,22 +6767,25 @@
       <c r="AG59">
         <v>-1.503407001495361</v>
       </c>
-      <c r="AH59" t="s">
-        <v>143</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688195</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>5.15</v>
@@ -5759,7 +6803,7 @@
         <v>121015.41</v>
       </c>
       <c r="J60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K60">
         <v>21</v>
@@ -5800,8 +6844,23 @@
       <c r="W60">
         <v>0.61</v>
       </c>
+      <c r="X60">
+        <v>0.85</v>
+      </c>
+      <c r="Y60">
+        <v>116.13</v>
+      </c>
+      <c r="Z60">
+        <v>7.24</v>
+      </c>
       <c r="AC60" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5809,22 +6868,25 @@
       <c r="AG60">
         <v>1.919635772705078</v>
       </c>
-      <c r="AH60" t="s">
-        <v>143</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>4.97</v>
@@ -5842,7 +6904,7 @@
         <v>67437.72</v>
       </c>
       <c r="J61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5883,8 +6945,23 @@
       <c r="W61">
         <v>0.22</v>
       </c>
+      <c r="X61">
+        <v>-0.92</v>
+      </c>
+      <c r="Y61">
+        <v>81</v>
+      </c>
+      <c r="Z61">
+        <v>-1.89</v>
+      </c>
       <c r="AC61" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5892,22 +6969,25 @@
       <c r="AG61">
         <v>4.417079448699951</v>
       </c>
-      <c r="AH61" t="s">
-        <v>143</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688228</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>15.52</v>
@@ -5925,7 +7005,7 @@
         <v>104680.92</v>
       </c>
       <c r="J62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -5966,8 +7046,23 @@
       <c r="W62">
         <v>-1.14</v>
       </c>
+      <c r="X62">
+        <v>-2.52</v>
+      </c>
+      <c r="Y62">
+        <v>190</v>
+      </c>
+      <c r="Z62">
+        <v>2.21</v>
+      </c>
       <c r="AC62" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5975,22 +7070,25 @@
       <c r="AG62">
         <v>5.943022727966309</v>
       </c>
-      <c r="AH62" t="s">
-        <v>143</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688256</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-3.02</v>
@@ -6008,7 +7106,7 @@
         <v>1246966.07</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6049,8 +7147,23 @@
       <c r="W63">
         <v>0.01</v>
       </c>
+      <c r="X63">
+        <v>0.01</v>
+      </c>
+      <c r="Y63">
+        <v>1528</v>
+      </c>
+      <c r="Z63">
+        <v>5.89</v>
+      </c>
       <c r="AC63" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6058,22 +7171,25 @@
       <c r="AG63">
         <v>11.82737255096436</v>
       </c>
-      <c r="AH63" t="s">
-        <v>144</v>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688331</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-0.47</v>
@@ -6091,7 +7207,7 @@
         <v>70184.09</v>
       </c>
       <c r="J64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -6132,8 +7248,23 @@
       <c r="W64">
         <v>0.04</v>
       </c>
+      <c r="X64">
+        <v>-0.49</v>
+      </c>
+      <c r="Y64">
+        <v>108.5</v>
+      </c>
+      <c r="Z64">
+        <v>1.51</v>
+      </c>
       <c r="AC64" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6141,22 +7272,25 @@
       <c r="AG64">
         <v>4.600992202758789</v>
       </c>
-      <c r="AH64" t="s">
-        <v>143</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688347</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>2.45</v>
@@ -6174,7 +7308,7 @@
         <v>155686.25</v>
       </c>
       <c r="J65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6215,8 +7349,23 @@
       <c r="W65">
         <v>-0.19</v>
       </c>
+      <c r="X65">
+        <v>0.05</v>
+      </c>
+      <c r="Y65">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>1.77</v>
+      </c>
       <c r="AC65" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6224,22 +7373,25 @@
       <c r="AG65">
         <v>1.225981950759888</v>
       </c>
-      <c r="AH65" t="s">
-        <v>143</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688411</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>18.19</v>
@@ -6257,7 +7409,7 @@
         <v>120660.58</v>
       </c>
       <c r="J66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6298,8 +7450,23 @@
       <c r="W66">
         <v>1.09</v>
       </c>
+      <c r="X66">
+        <v>5.2</v>
+      </c>
+      <c r="Y66">
+        <v>214</v>
+      </c>
+      <c r="Z66">
+        <v>-0.79</v>
+      </c>
       <c r="AC66" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6307,22 +7474,25 @@
       <c r="AG66">
         <v>4.392318725585938</v>
       </c>
-      <c r="AH66" t="s">
-        <v>143</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688498</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.52</v>
@@ -6340,7 +7510,7 @@
         <v>89047.47</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6381,8 +7551,23 @@
       <c r="W67">
         <v>-0.05</v>
       </c>
+      <c r="X67">
+        <v>1.12</v>
+      </c>
+      <c r="Y67">
+        <v>382.79</v>
+      </c>
+      <c r="Z67">
+        <v>2.97</v>
+      </c>
       <c r="AC67" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6390,22 +7575,25 @@
       <c r="AG67">
         <v>4.749378204345703</v>
       </c>
-      <c r="AH67" t="s">
-        <v>143</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688521</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-7.41</v>
@@ -6423,7 +7611,7 @@
         <v>594930.38</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K68">
         <v>9</v>
@@ -6464,8 +7652,23 @@
       <c r="W68">
         <v>-1.03</v>
       </c>
+      <c r="X68">
+        <v>-0.4</v>
+      </c>
+      <c r="Y68">
+        <v>188.98</v>
+      </c>
+      <c r="Z68">
+        <v>11.17</v>
+      </c>
       <c r="AC68" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6473,22 +7676,25 @@
       <c r="AG68">
         <v>5.704651355743408</v>
       </c>
-      <c r="AH68" t="s">
-        <v>143</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688629</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.37</v>
@@ -6506,7 +7712,7 @@
         <v>96089.88</v>
       </c>
       <c r="J69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6547,8 +7753,23 @@
       <c r="W69">
         <v>0.1</v>
       </c>
+      <c r="X69">
+        <v>2.21</v>
+      </c>
+      <c r="Y69">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="Z69">
+        <v>2.17</v>
+      </c>
       <c r="AC69" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6556,8 +7777,11 @@
       <c r="AG69">
         <v>7.290751457214355</v>
       </c>
-      <c r="AH69" t="s">
-        <v>144</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
